--- a/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
+++ b/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\eps-us-2.1.0\eps-us-2.1.0\InputData\trans\SDoVPbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\SDoVPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740D76D6-469C-45B0-9187-8FFC2A29A3E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
     <definedName name="cpi_2014to2012">[1]About!$A$103</definedName>
     <definedName name="cpi_2016to2012">[1]About!$A$105</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1943,10 +1942,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2079,7 +2078,7 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
@@ -2099,15 +2098,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2137,7 +2136,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2151,16 +2149,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell" xfId="2"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="4"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Parent row" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Parent row" xfId="7"/>
+    <cellStyle name="Table title" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2316,23 +2314,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2368,23 +2349,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2560,24 +2524,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2585,315 +2549,315 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="13">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="9" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B38" s="9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" s="10" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>626</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B33" r:id="rId1"/>
+    <hyperlink ref="B32" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>475</v>
       </c>
@@ -2907,7 +2871,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -2921,7 +2885,7 @@
         <v>24045</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>484</v>
       </c>
@@ -2935,7 +2899,7 @@
         <v>18740</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>484</v>
       </c>
@@ -2949,7 +2913,7 @@
         <v>22455</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>535</v>
       </c>
@@ -2963,7 +2927,7 @@
         <v>30630</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>484</v>
       </c>
@@ -2977,7 +2941,7 @@
         <v>30745</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>535</v>
       </c>
@@ -2991,7 +2955,7 @@
         <v>24410</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -3005,7 +2969,7 @@
         <v>27110</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>540</v>
       </c>
@@ -3019,7 +2983,7 @@
         <v>24045</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>542</v>
       </c>
@@ -3033,7 +2997,7 @@
         <v>30395</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>544</v>
       </c>
@@ -3047,7 +3011,7 @@
         <v>22795</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>546</v>
       </c>
@@ -3061,7 +3025,7 @@
         <v>23580</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>535</v>
       </c>
@@ -3075,7 +3039,7 @@
         <v>24320</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>542</v>
       </c>
@@ -3089,7 +3053,7 @@
         <v>23995</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>544</v>
       </c>
@@ -3103,7 +3067,7 @@
         <v>25645</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>538</v>
       </c>
@@ -3117,7 +3081,7 @@
         <v>31660</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>535</v>
       </c>
@@ -3131,7 +3095,7 @@
         <v>23070</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>538</v>
       </c>
@@ -3145,7 +3109,7 @@
         <v>23750</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>554</v>
       </c>
@@ -3159,7 +3123,7 @@
         <v>24420</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>538</v>
       </c>
@@ -3173,7 +3137,7 @@
         <v>25185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>542</v>
       </c>
@@ -3187,7 +3151,7 @@
         <v>23695</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>558</v>
       </c>
@@ -3201,7 +3165,7 @@
         <v>26995</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>546</v>
       </c>
@@ -3215,7 +3179,7 @@
         <v>25905</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>561</v>
       </c>
@@ -3229,7 +3193,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>563</v>
       </c>
@@ -3243,7 +3207,7 @@
         <v>43120</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>565</v>
       </c>
@@ -3257,7 +3221,7 @@
         <v>28995</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>567</v>
       </c>
@@ -3271,7 +3235,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>569</v>
       </c>
@@ -3285,7 +3249,7 @@
         <v>21950</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>484</v>
       </c>
@@ -3299,7 +3263,7 @@
         <v>19465</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>535</v>
       </c>
@@ -3313,7 +3277,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>535</v>
       </c>
@@ -3327,7 +3291,7 @@
         <v>34210</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>484</v>
       </c>
@@ -3341,7 +3305,7 @@
         <v>29475</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>575</v>
       </c>
@@ -3355,7 +3319,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>538</v>
       </c>
@@ -3369,7 +3333,7 @@
         <v>28950</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>578</v>
       </c>
@@ -3383,7 +3347,7 @@
         <v>26495</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>546</v>
       </c>
@@ -3397,7 +3361,7 @@
         <v>27785</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>569</v>
       </c>
@@ -3411,7 +3375,7 @@
         <v>22700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>540</v>
       </c>
@@ -3425,7 +3389,7 @@
         <v>17845</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>546</v>
       </c>
@@ -3439,7 +3403,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>496</v>
       </c>
@@ -3453,7 +3417,7 @@
         <v>56600</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>569</v>
       </c>
@@ -3467,7 +3431,7 @@
         <v>17150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>558</v>
       </c>
@@ -3481,7 +3445,7 @@
         <v>27995</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>561</v>
       </c>
@@ -3495,7 +3459,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>546</v>
       </c>
@@ -3509,7 +3473,7 @@
         <v>21680</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>575</v>
       </c>
@@ -3523,7 +3487,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>546</v>
       </c>
@@ -3537,7 +3501,7 @@
         <v>16975</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>554</v>
       </c>
@@ -3551,7 +3515,7 @@
         <v>29770</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>591</v>
       </c>
@@ -3565,7 +3529,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>496</v>
       </c>
@@ -3579,7 +3543,7 @@
         <v>33450</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>569</v>
       </c>
@@ -3593,7 +3557,7 @@
         <v>25350</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>538</v>
       </c>
@@ -3613,19 +3577,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1328125" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3636,7 +3600,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3647,7 +3611,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3658,7 +3622,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3669,7 +3633,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3680,7 +3644,7 @@
         <v>122900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3691,7 +3655,7 @@
         <v>154900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3702,7 +3666,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3713,7 +3677,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3724,7 +3688,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3735,7 +3699,7 @@
         <v>131175</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3746,7 +3710,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3757,7 +3721,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3768,7 +3732,7 @@
         <v>127516</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3779,7 +3743,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3790,7 +3754,7 @@
         <v>127450</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3801,7 +3765,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3812,7 +3776,7 @@
         <v>128530</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3823,7 +3787,7 @@
         <v>132698</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3834,7 +3798,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3845,7 +3809,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3856,7 +3820,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3867,7 +3831,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -3878,7 +3842,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3889,7 +3853,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3900,7 +3864,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3911,7 +3875,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3922,7 +3886,7 @@
         <v>128149</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3933,7 +3897,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3944,7 +3908,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3955,7 +3919,7 @@
         <v>138800</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -3966,7 +3930,7 @@
         <v>124167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -3977,7 +3941,7 @@
         <v>124500</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -3988,7 +3952,7 @@
         <v>173500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3999,7 +3963,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -4010,7 +3974,7 @@
         <v>124791</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -4021,7 +3985,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -4032,7 +3996,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -4043,7 +4007,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -4054,7 +4018,7 @@
         <v>125046</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -4065,7 +4029,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -4076,7 +4040,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -4087,7 +4051,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -4098,7 +4062,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -4109,7 +4073,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -4120,7 +4084,7 @@
         <v>134672</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4131,7 +4095,7 @@
         <v>144900</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -4142,7 +4106,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -4153,7 +4117,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -4164,7 +4128,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -4175,7 +4139,7 @@
         <v>144750</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -4186,7 +4150,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -4197,7 +4161,7 @@
         <v>127450</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -4208,7 +4172,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -4219,7 +4183,7 @@
         <v>134675</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -4230,7 +4194,7 @@
         <v>134672</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -4241,7 +4205,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4252,7 +4216,7 @@
         <v>112520</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -4263,7 +4227,7 @@
         <v>129950</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -4274,7 +4238,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4285,7 +4249,7 @@
         <v>126576</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -4296,7 +4260,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -4307,7 +4271,7 @@
         <v>132700</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -4318,7 +4282,7 @@
         <v>121850</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -4329,7 +4293,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -4340,7 +4304,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -4351,7 +4315,7 @@
         <v>118900</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -4362,7 +4326,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -4373,7 +4337,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -4384,7 +4348,7 @@
         <v>120874</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -4395,7 +4359,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -4406,7 +4370,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -4417,7 +4381,7 @@
         <v>140759</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -4428,7 +4392,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -4439,7 +4403,7 @@
         <v>128733</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -4450,7 +4414,7 @@
         <v>129526</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -4461,7 +4425,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -4472,7 +4436,7 @@
         <v>137281</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -4483,7 +4447,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -4494,7 +4458,7 @@
         <v>133450</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -4505,7 +4469,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -4516,7 +4480,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -4527,7 +4491,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -4538,7 +4502,7 @@
         <v>136005</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -4549,7 +4513,7 @@
         <v>128570</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -4560,7 +4524,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -4571,7 +4535,7 @@
         <v>126948</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -4582,7 +4546,7 @@
         <v>128950</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>123</v>
       </c>
@@ -4593,7 +4557,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>124</v>
       </c>
@@ -4604,7 +4568,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>125</v>
       </c>
@@ -4615,7 +4579,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -4626,7 +4590,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -4637,7 +4601,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>128</v>
       </c>
@@ -4648,7 +4612,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -4659,7 +4623,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -4670,7 +4634,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>132</v>
       </c>
@@ -4681,7 +4645,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -4692,7 +4656,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -4703,7 +4667,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -4714,7 +4678,7 @@
         <v>142008</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -4725,7 +4689,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>137</v>
       </c>
@@ -4736,7 +4700,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -4747,7 +4711,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -4758,7 +4722,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>140</v>
       </c>
@@ -4769,7 +4733,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -4780,7 +4744,7 @@
         <v>140060</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>142</v>
       </c>
@@ -4791,7 +4755,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -4802,7 +4766,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -4813,7 +4777,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>145</v>
       </c>
@@ -4824,7 +4788,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>146</v>
       </c>
@@ -4835,7 +4799,7 @@
         <v>139932</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -4846,7 +4810,7 @@
         <v>128500</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>148</v>
       </c>
@@ -4857,7 +4821,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>149</v>
       </c>
@@ -4868,7 +4832,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>150</v>
       </c>
@@ -4879,7 +4843,7 @@
         <v>132444</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>151</v>
       </c>
@@ -4890,7 +4854,7 @@
         <v>143314</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -4901,7 +4865,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>153</v>
       </c>
@@ -4912,7 +4876,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>154</v>
       </c>
@@ -4923,7 +4887,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -4934,7 +4898,7 @@
         <v>144214</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -4945,7 +4909,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>157</v>
       </c>
@@ -4956,7 +4920,7 @@
         <v>133745</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>158</v>
       </c>
@@ -4967,7 +4931,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>159</v>
       </c>
@@ -4978,7 +4942,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -4989,7 +4953,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>161</v>
       </c>
@@ -5000,7 +4964,7 @@
         <v>152980</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>163</v>
       </c>
@@ -5011,7 +4975,7 @@
         <v>128570</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>164</v>
       </c>
@@ -5022,7 +4986,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>165</v>
       </c>
@@ -5033,7 +4997,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>166</v>
       </c>
@@ -5044,7 +5008,7 @@
         <v>130086</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -5055,7 +5019,7 @@
         <v>128295</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>169</v>
       </c>
@@ -5066,7 +5030,7 @@
         <v>128397</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -5077,7 +5041,7 @@
         <v>130746</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>171</v>
       </c>
@@ -5088,7 +5052,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>172</v>
       </c>
@@ -5099,7 +5063,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>173</v>
       </c>
@@ -5110,7 +5074,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>174</v>
       </c>
@@ -5121,7 +5085,7 @@
         <v>134920</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>176</v>
       </c>
@@ -5132,7 +5096,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -5143,7 +5107,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>177</v>
       </c>
@@ -5154,7 +5118,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>178</v>
       </c>
@@ -5165,7 +5129,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>179</v>
       </c>
@@ -5176,7 +5140,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>180</v>
       </c>
@@ -5187,7 +5151,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -5198,7 +5162,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>182</v>
       </c>
@@ -5209,7 +5173,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>183</v>
       </c>
@@ -5220,7 +5184,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -5231,7 +5195,7 @@
         <v>136005</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>185</v>
       </c>
@@ -5242,7 +5206,7 @@
         <v>127078</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>186</v>
       </c>
@@ -5253,7 +5217,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -5264,7 +5228,7 @@
         <v>117149</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>188</v>
       </c>
@@ -5275,7 +5239,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>189</v>
       </c>
@@ -5286,7 +5250,7 @@
         <v>136219</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>190</v>
       </c>
@@ -5297,7 +5261,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -5308,7 +5272,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>192</v>
       </c>
@@ -5319,7 +5283,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>193</v>
       </c>
@@ -5330,7 +5294,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>194</v>
       </c>
@@ -5341,7 +5305,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>195</v>
       </c>
@@ -5352,7 +5316,7 @@
         <v>148677</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>196</v>
       </c>
@@ -5363,7 +5327,7 @@
         <v>137900</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>198</v>
       </c>
@@ -5374,7 +5338,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -5385,7 +5349,7 @@
         <v>131683</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -5396,7 +5360,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>201</v>
       </c>
@@ -5407,7 +5371,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>202</v>
       </c>
@@ -5418,7 +5382,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>203</v>
       </c>
@@ -5429,7 +5393,7 @@
         <v>130881</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>204</v>
       </c>
@@ -5440,7 +5404,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>205</v>
       </c>
@@ -5451,7 +5415,7 @@
         <v>156800</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -5462,7 +5426,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>207</v>
       </c>
@@ -5473,7 +5437,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>208</v>
       </c>
@@ -5484,7 +5448,7 @@
         <v>129712</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -5495,7 +5459,7 @@
         <v>136345</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>210</v>
       </c>
@@ -5506,7 +5470,7 @@
         <v>120617</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>211</v>
       </c>
@@ -5517,7 +5481,7 @@
         <v>127111</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -5528,7 +5492,7 @@
         <v>137454</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -5539,7 +5503,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>214</v>
       </c>
@@ -5550,7 +5514,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>130</v>
       </c>
@@ -5561,7 +5525,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>216</v>
       </c>
@@ -5572,7 +5536,7 @@
         <v>130256</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>217</v>
       </c>
@@ -5583,7 +5547,7 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>218</v>
       </c>
@@ -5594,7 +5558,7 @@
         <v>133409</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -5605,7 +5569,7 @@
         <v>138957</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>220</v>
       </c>
@@ -5616,7 +5580,7 @@
         <v>128733</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>221</v>
       </c>
@@ -5627,7 +5591,7 @@
         <v>129526</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>222</v>
       </c>
@@ -5638,7 +5602,7 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>223</v>
       </c>
@@ -5649,7 +5613,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>225</v>
       </c>
@@ -5660,7 +5624,7 @@
         <v>133801</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>226</v>
       </c>
@@ -5671,7 +5635,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>227</v>
       </c>
@@ -5682,7 +5646,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>228</v>
       </c>
@@ -5693,7 +5657,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>229</v>
       </c>
@@ -5704,7 +5668,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>230</v>
       </c>
@@ -5715,7 +5679,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>231</v>
       </c>
@@ -5726,7 +5690,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>232</v>
       </c>
@@ -5737,7 +5701,7 @@
         <v>120617</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>233</v>
       </c>
@@ -5748,7 +5712,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>234</v>
       </c>
@@ -5759,7 +5723,7 @@
         <v>289000</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>235</v>
       </c>
@@ -5770,7 +5734,7 @@
         <v>135500</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>236</v>
       </c>
@@ -5781,7 +5745,7 @@
         <v>149592</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>237</v>
       </c>
@@ -5792,7 +5756,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>238</v>
       </c>
@@ -5803,7 +5767,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>239</v>
       </c>
@@ -5814,7 +5778,7 @@
         <v>131450</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>240</v>
       </c>
@@ -5825,7 +5789,7 @@
         <v>138775</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>241</v>
       </c>
@@ -5836,7 +5800,7 @@
         <v>138775</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>242</v>
       </c>
@@ -5847,7 +5811,7 @@
         <v>131369</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>243</v>
       </c>
@@ -5858,7 +5822,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>244</v>
       </c>
@@ -5869,7 +5833,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>245</v>
       </c>
@@ -5880,7 +5844,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>246</v>
       </c>
@@ -5891,7 +5855,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>247</v>
       </c>
@@ -5902,7 +5866,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>248</v>
       </c>
@@ -5913,7 +5877,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>249</v>
       </c>
@@ -5924,7 +5888,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>250</v>
       </c>
@@ -5935,7 +5899,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>251</v>
       </c>
@@ -5946,7 +5910,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>252</v>
       </c>
@@ -5957,7 +5921,7 @@
         <v>132551</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>253</v>
       </c>
@@ -5968,7 +5932,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>254</v>
       </c>
@@ -5979,7 +5943,7 @@
         <v>147838</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>255</v>
       </c>
@@ -5990,7 +5954,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>256</v>
       </c>
@@ -6001,7 +5965,7 @@
         <v>127513</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>257</v>
       </c>
@@ -6012,7 +5976,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>258</v>
       </c>
@@ -6023,7 +5987,7 @@
         <v>151734</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>259</v>
       </c>
@@ -6034,7 +5998,7 @@
         <v>132500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>260</v>
       </c>
@@ -6045,7 +6009,7 @@
         <v>174105</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>261</v>
       </c>
@@ -6056,7 +6020,7 @@
         <v>140253</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>262</v>
       </c>
@@ -6067,7 +6031,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>263</v>
       </c>
@@ -6078,7 +6042,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>264</v>
       </c>
@@ -6089,7 +6053,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>265</v>
       </c>
@@ -6100,7 +6064,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>266</v>
       </c>
@@ -6111,7 +6075,7 @@
         <v>207200</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>267</v>
       </c>
@@ -6122,7 +6086,7 @@
         <v>132444</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>268</v>
       </c>
@@ -6133,7 +6097,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>269</v>
       </c>
@@ -6144,7 +6108,7 @@
         <v>124526</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>270</v>
       </c>
@@ -6155,7 +6119,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>130</v>
       </c>
@@ -6166,7 +6130,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>271</v>
       </c>
@@ -6177,7 +6141,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>272</v>
       </c>
@@ -6188,7 +6152,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>273</v>
       </c>
@@ -6199,7 +6163,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>274</v>
       </c>
@@ -6210,7 +6174,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>275</v>
       </c>
@@ -6221,7 +6185,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>130</v>
       </c>
@@ -6232,7 +6196,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>276</v>
       </c>
@@ -6243,7 +6207,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>277</v>
       </c>
@@ -6254,7 +6218,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>278</v>
       </c>
@@ -6265,7 +6229,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>279</v>
       </c>
@@ -6276,7 +6240,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>280</v>
       </c>
@@ -6287,7 +6251,7 @@
         <v>179120</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>281</v>
       </c>
@@ -6298,7 +6262,7 @@
         <v>179120</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>282</v>
       </c>
@@ -6309,7 +6273,7 @@
         <v>127740</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>283</v>
       </c>
@@ -6320,7 +6284,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>284</v>
       </c>
@@ -6331,7 +6295,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>285</v>
       </c>
@@ -6349,19 +6313,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -6372,7 +6336,7 @@
         <v>142405</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -6383,7 +6347,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>291</v>
       </c>
@@ -6394,7 +6358,7 @@
         <v>125950</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -6405,7 +6369,7 @@
         <v>142988</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6416,7 +6380,7 @@
         <v>136835</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>295</v>
       </c>
@@ -6427,7 +6391,7 @@
         <v>145650</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -6438,7 +6402,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -6449,7 +6413,7 @@
         <v>148600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -6460,7 +6424,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>301</v>
       </c>
@@ -6471,7 +6435,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>303</v>
       </c>
@@ -6482,7 +6446,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>304</v>
       </c>
@@ -6493,7 +6457,7 @@
         <v>143860</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>305</v>
       </c>
@@ -6504,7 +6468,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>306</v>
       </c>
@@ -6515,7 +6479,7 @@
         <v>148275</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -6526,7 +6490,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>308</v>
       </c>
@@ -6537,7 +6501,7 @@
         <v>140608</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -6548,7 +6512,7 @@
         <v>165536</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -6559,7 +6523,7 @@
         <v>151764</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>311</v>
       </c>
@@ -6570,7 +6534,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -6581,7 +6545,7 @@
         <v>165718</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -6592,7 +6556,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>314</v>
       </c>
@@ -6603,7 +6567,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -6614,7 +6578,7 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>316</v>
       </c>
@@ -6625,7 +6589,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>317</v>
       </c>
@@ -6636,7 +6600,7 @@
         <v>141750</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>318</v>
       </c>
@@ -6647,7 +6611,7 @@
         <v>145934</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>319</v>
       </c>
@@ -6658,7 +6622,7 @@
         <v>141150</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>320</v>
       </c>
@@ -6669,7 +6633,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>321</v>
       </c>
@@ -6680,7 +6644,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>322</v>
       </c>
@@ -6691,7 +6655,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>323</v>
       </c>
@@ -6702,7 +6666,7 @@
         <v>140500</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>324</v>
       </c>
@@ -6713,7 +6677,7 @@
         <v>144775</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>325</v>
       </c>
@@ -6724,7 +6688,7 @@
         <v>147555</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>326</v>
       </c>
@@ -6735,7 +6699,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>327</v>
       </c>
@@ -6746,7 +6710,7 @@
         <v>131211</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -6757,7 +6721,7 @@
         <v>147500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>329</v>
       </c>
@@ -6768,7 +6732,7 @@
         <v>141600</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>330</v>
       </c>
@@ -6779,7 +6743,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>331</v>
       </c>
@@ -6790,7 +6754,7 @@
         <v>155900</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>332</v>
       </c>
@@ -6801,7 +6765,7 @@
         <v>137500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>333</v>
       </c>
@@ -6812,7 +6776,7 @@
         <v>136483</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>334</v>
       </c>
@@ -6823,7 +6787,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -6834,7 +6798,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>336</v>
       </c>
@@ -6845,7 +6809,7 @@
         <v>127995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>337</v>
       </c>
@@ -6856,7 +6820,7 @@
         <v>145385</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>338</v>
       </c>
@@ -6867,7 +6831,7 @@
         <v>145180</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>339</v>
       </c>
@@ -6878,7 +6842,7 @@
         <v>140460</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -6889,7 +6853,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>341</v>
       </c>
@@ -6900,7 +6864,7 @@
         <v>137468</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>342</v>
       </c>
@@ -6911,7 +6875,7 @@
         <v>148351</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>343</v>
       </c>
@@ -6922,7 +6886,7 @@
         <v>153543</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>344</v>
       </c>
@@ -6933,7 +6897,7 @@
         <v>147429</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>345</v>
       </c>
@@ -6944,7 +6908,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>346</v>
       </c>
@@ -6955,7 +6919,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>347</v>
       </c>
@@ -6966,7 +6930,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>348</v>
       </c>
@@ -6977,7 +6941,7 @@
         <v>141245</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>349</v>
       </c>
@@ -6988,7 +6952,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>346</v>
       </c>
@@ -6999,7 +6963,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>350</v>
       </c>
@@ -7010,7 +6974,7 @@
         <v>146800</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>351</v>
       </c>
@@ -7021,7 +6985,7 @@
         <v>141898</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>352</v>
       </c>
@@ -7032,7 +6996,7 @@
         <v>147780</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>353</v>
       </c>
@@ -7043,7 +7007,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>354</v>
       </c>
@@ -7054,7 +7018,7 @@
         <v>145375</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>355</v>
       </c>
@@ -7065,7 +7029,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -7076,7 +7040,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>357</v>
       </c>
@@ -7087,7 +7051,7 @@
         <v>149391</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>358</v>
       </c>
@@ -7098,7 +7062,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>359</v>
       </c>
@@ -7109,7 +7073,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>334</v>
       </c>
@@ -7120,7 +7084,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>335</v>
       </c>
@@ -7131,7 +7095,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>360</v>
       </c>
@@ -7142,7 +7106,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>361</v>
       </c>
@@ -7153,7 +7117,7 @@
         <v>149285</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>362</v>
       </c>
@@ -7164,7 +7128,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>363</v>
       </c>
@@ -7175,7 +7139,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>346</v>
       </c>
@@ -7186,7 +7150,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -7197,7 +7161,7 @@
         <v>145180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>365</v>
       </c>
@@ -7208,7 +7172,7 @@
         <v>153814</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>366</v>
       </c>
@@ -7219,7 +7183,7 @@
         <v>148613</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>367</v>
       </c>
@@ -7230,7 +7194,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>368</v>
       </c>
@@ -7241,7 +7205,7 @@
         <v>134900</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>369</v>
       </c>
@@ -7252,7 +7216,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>370</v>
       </c>
@@ -7263,7 +7227,7 @@
         <v>151674</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>371</v>
       </c>
@@ -7274,7 +7238,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>372</v>
       </c>
@@ -7285,7 +7249,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>373</v>
       </c>
@@ -7296,7 +7260,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>374</v>
       </c>
@@ -7307,7 +7271,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>346</v>
       </c>
@@ -7318,7 +7282,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -7329,7 +7293,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -7340,7 +7304,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -7351,7 +7315,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>377</v>
       </c>
@@ -7362,7 +7326,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -7373,7 +7337,7 @@
         <v>166322</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>379</v>
       </c>
@@ -7384,7 +7348,7 @@
         <v>132993</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>380</v>
       </c>
@@ -7395,7 +7359,7 @@
         <v>150929</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>381</v>
       </c>
@@ -7406,7 +7370,7 @@
         <v>143860</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>358</v>
       </c>
@@ -7417,7 +7381,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>382</v>
       </c>
@@ -7428,7 +7392,7 @@
         <v>150699</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>383</v>
       </c>
@@ -7439,7 +7403,7 @@
         <v>136908</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>367</v>
       </c>
@@ -7450,7 +7414,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>384</v>
       </c>
@@ -7461,7 +7425,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>385</v>
       </c>
@@ -7472,7 +7436,7 @@
         <v>147311</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>386</v>
       </c>
@@ -7483,7 +7447,7 @@
         <v>151500</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>387</v>
       </c>
@@ -7494,7 +7458,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>388</v>
       </c>
@@ -7505,7 +7469,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>358</v>
       </c>
@@ -7516,7 +7480,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>389</v>
       </c>
@@ -7527,7 +7491,7 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>390</v>
       </c>
@@ -7538,7 +7502,7 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>391</v>
       </c>
@@ -7549,7 +7513,7 @@
         <v>137900</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>392</v>
       </c>
@@ -7560,7 +7524,7 @@
         <v>150750</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>393</v>
       </c>
@@ -7571,7 +7535,7 @@
         <v>150750</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>394</v>
       </c>
@@ -7582,7 +7546,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>395</v>
       </c>
@@ -7593,7 +7557,7 @@
         <v>143529</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>353</v>
       </c>
@@ -7604,7 +7568,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>356</v>
       </c>
@@ -7615,7 +7579,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>396</v>
       </c>
@@ -7626,7 +7590,7 @@
         <v>145200</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>397</v>
       </c>
@@ -7637,7 +7601,7 @@
         <v>150699</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>360</v>
       </c>
@@ -7648,7 +7612,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>398</v>
       </c>
@@ -7659,7 +7623,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>399</v>
       </c>
@@ -7670,7 +7634,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>356</v>
       </c>
@@ -7681,7 +7645,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>400</v>
       </c>
@@ -7692,7 +7656,7 @@
         <v>148900</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>334</v>
       </c>
@@ -7703,7 +7667,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>335</v>
       </c>
@@ -7714,7 +7678,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>401</v>
       </c>
@@ -7725,7 +7689,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>402</v>
       </c>
@@ -7736,7 +7700,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>346</v>
       </c>
@@ -7747,7 +7711,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>403</v>
       </c>
@@ -7758,7 +7722,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>404</v>
       </c>
@@ -7769,7 +7733,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>405</v>
       </c>
@@ -7780,7 +7744,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>406</v>
       </c>
@@ -7791,7 +7755,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>407</v>
       </c>
@@ -7802,7 +7766,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>408</v>
       </c>
@@ -7813,7 +7777,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>409</v>
       </c>
@@ -7824,7 +7788,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>410</v>
       </c>
@@ -7835,7 +7799,7 @@
         <v>150475</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>411</v>
       </c>
@@ -7846,7 +7810,7 @@
         <v>136581</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>358</v>
       </c>
@@ -7857,7 +7821,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>353</v>
       </c>
@@ -7868,7 +7832,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>360</v>
       </c>
@@ -7879,7 +7843,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>412</v>
       </c>
@@ -7890,7 +7854,7 @@
         <v>134500</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -7901,7 +7865,7 @@
         <v>156236</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>414</v>
       </c>
@@ -7912,7 +7876,7 @@
         <v>151299</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>415</v>
       </c>
@@ -7923,7 +7887,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>416</v>
       </c>
@@ -7934,7 +7898,7 @@
         <v>143100</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -7945,7 +7909,7 @@
         <v>142880</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>367</v>
       </c>
@@ -7956,7 +7920,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>356</v>
       </c>
@@ -7967,7 +7931,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>356</v>
       </c>
@@ -7978,7 +7942,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>334</v>
       </c>
@@ -7989,7 +7953,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>367</v>
       </c>
@@ -8000,7 +7964,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>418</v>
       </c>
@@ -8011,7 +7975,7 @@
         <v>141690</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>415</v>
       </c>
@@ -8022,7 +7986,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>360</v>
       </c>
@@ -8033,7 +7997,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>419</v>
       </c>
@@ -8044,7 +8008,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>420</v>
       </c>
@@ -8055,7 +8019,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>421</v>
       </c>
@@ -8066,7 +8030,7 @@
         <v>136196</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>422</v>
       </c>
@@ -8077,7 +8041,7 @@
         <v>144850</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>423</v>
       </c>
@@ -8088,7 +8052,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>424</v>
       </c>
@@ -8099,7 +8063,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>425</v>
       </c>
@@ -8110,7 +8074,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>426</v>
       </c>
@@ -8121,7 +8085,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>427</v>
       </c>
@@ -8132,7 +8096,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>358</v>
       </c>
@@ -8143,7 +8107,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>358</v>
       </c>
@@ -8154,7 +8118,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>428</v>
       </c>
@@ -8165,7 +8129,7 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>429</v>
       </c>
@@ -8176,7 +8140,7 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>430</v>
       </c>
@@ -8187,7 +8151,7 @@
         <v>141034</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>431</v>
       </c>
@@ -8198,7 +8162,7 @@
         <v>145900</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>432</v>
       </c>
@@ -8209,7 +8173,7 @@
         <v>148191</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>360</v>
       </c>
@@ -8220,7 +8184,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>433</v>
       </c>
@@ -8231,7 +8195,7 @@
         <v>150499</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>334</v>
       </c>
@@ -8242,7 +8206,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>367</v>
       </c>
@@ -8253,7 +8217,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>434</v>
       </c>
@@ -8264,7 +8228,7 @@
         <v>152753</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -8275,7 +8239,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -8286,7 +8250,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>435</v>
       </c>
@@ -8297,7 +8261,7 @@
         <v>142880</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>436</v>
       </c>
@@ -8308,7 +8272,7 @@
         <v>142977</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>437</v>
       </c>
@@ -8319,7 +8283,7 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>438</v>
       </c>
@@ -8330,7 +8294,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>439</v>
       </c>
@@ -8341,7 +8305,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>440</v>
       </c>
@@ -8352,7 +8316,7 @@
         <v>166322</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>441</v>
       </c>
@@ -8363,7 +8327,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>442</v>
       </c>
@@ -8374,7 +8338,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>443</v>
       </c>
@@ -8385,7 +8349,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>444</v>
       </c>
@@ -8396,7 +8360,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>445</v>
       </c>
@@ -8407,7 +8371,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>446</v>
       </c>
@@ -8418,7 +8382,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>447</v>
       </c>
@@ -8429,7 +8393,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>448</v>
       </c>
@@ -8440,7 +8404,7 @@
         <v>140990</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>353</v>
       </c>
@@ -8451,7 +8415,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>449</v>
       </c>
@@ -8462,7 +8426,7 @@
         <v>146850</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>450</v>
       </c>
@@ -8473,7 +8437,7 @@
         <v>142667</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>451</v>
       </c>
@@ -8484,7 +8448,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>452</v>
       </c>
@@ -8495,7 +8459,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>453</v>
       </c>
@@ -8506,7 +8470,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>454</v>
       </c>
@@ -8517,7 +8481,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>455</v>
       </c>
@@ -8528,7 +8492,7 @@
         <v>142888</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>456</v>
       </c>
@@ -8539,7 +8503,7 @@
         <v>154160</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>457</v>
       </c>
@@ -8550,7 +8514,7 @@
         <v>148945</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>458</v>
       </c>
@@ -8561,7 +8525,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>353</v>
       </c>
@@ -8572,7 +8536,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>346</v>
       </c>
@@ -8583,7 +8547,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>459</v>
       </c>
@@ -8594,7 +8558,7 @@
         <v>148658</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>460</v>
       </c>
@@ -8605,7 +8569,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>461</v>
       </c>
@@ -8616,7 +8580,7 @@
         <v>142977</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>462</v>
       </c>
@@ -8627,7 +8591,7 @@
         <v>145375</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>367</v>
       </c>
@@ -8638,7 +8602,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>463</v>
       </c>
@@ -8649,7 +8613,7 @@
         <v>143415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>464</v>
       </c>
@@ -8660,7 +8624,7 @@
         <v>143625</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>465</v>
       </c>
@@ -8671,7 +8635,7 @@
         <v>150475</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>360</v>
       </c>
@@ -8682,7 +8646,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>466</v>
       </c>
@@ -8693,7 +8657,7 @@
         <v>144910</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>467</v>
       </c>
@@ -8704,7 +8668,7 @@
         <v>153260</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>468</v>
       </c>
@@ -8721,23 +8685,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>475</v>
       </c>
@@ -8748,7 +8712,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>478</v>
       </c>
@@ -8759,7 +8723,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -8770,7 +8734,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>482</v>
       </c>
@@ -8781,7 +8745,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>484</v>
       </c>
@@ -8792,7 +8756,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>486</v>
       </c>
@@ -8803,7 +8767,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>488</v>
       </c>
@@ -8814,7 +8778,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>490</v>
       </c>
@@ -8825,7 +8789,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>492</v>
       </c>
@@ -8836,7 +8800,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>494</v>
       </c>
@@ -8847,7 +8811,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>496</v>
       </c>
@@ -8864,18 +8828,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>469</v>
       </c>
@@ -8886,7 +8850,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>615</v>
       </c>
@@ -8898,7 +8862,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>472</v>
       </c>
@@ -8910,7 +8874,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -8929,62 +8893,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="13" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" customWidth="1"/>
+    <col min="4" max="11" width="14.265625" customWidth="1"/>
+    <col min="12" max="13" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -9000,10 +8964,10 @@
       <c r="E2" s="3">
         <v>206127.38518562954</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>94933107.191416278</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>94933107.191416278</v>
       </c>
       <c r="H2" s="3">
@@ -9025,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9041,10 +9005,10 @@
       <c r="E3" s="3">
         <v>135407.27428151103</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>0</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>0</v>
       </c>
       <c r="H3" s="3">
@@ -9066,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -9082,10 +9046,10 @@
       <c r="E4" s="3">
         <v>132928.01486984815</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>0</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>0</v>
       </c>
       <c r="H4" s="3">
@@ -9107,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -9123,10 +9087,10 @@
       <c r="E5" s="18">
         <v>132928.01486984815</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>64833333.333333336</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>64833333.333333336</v>
       </c>
       <c r="H5" s="3">
@@ -9148,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -9164,10 +9128,10 @@
       <c r="E6" s="3">
         <v>154404.11029915701</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>0</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>0</v>
       </c>
       <c r="H6" s="3">
@@ -9189,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>621</v>
       </c>
@@ -9205,10 +9169,10 @@
       <c r="E7" s="3">
         <v>150517.12184581585</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>0</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>0</v>
       </c>
       <c r="H7" s="3">
@@ -9230,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>622</v>
       </c>
@@ -9246,10 +9210,10 @@
       <c r="E8" s="3">
         <v>170845.9414873973</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>150462425.18688756</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>150462425.18688756</v>
       </c>
       <c r="H8" s="3">
@@ -9278,7 +9242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9286,17 +9250,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="8" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="3" width="24.265625" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="8" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>623</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -9321,7 +9285,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -9354,7 +9318,7 @@
         <v>19285.213920368249</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -9387,7 +9351,7 @@
         <v>114375.50191218297</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -9416,7 +9380,7 @@
         <v>15428147.692604657</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -9445,7 +9409,7 @@
         <v>594915.72079452395</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9475,7 +9439,7 @@
         <v>7138.988649534288</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -9509,25 +9473,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="8" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="3" width="24.265625" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="8" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>623</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -9552,7 +9518,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -9585,7 +9551,7 @@
         <v>22143.359548864228</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -9618,7 +9584,7 @@
         <v>17518.236959664304</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -9647,7 +9613,7 @@
         <v>15428147.692604657</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -9676,7 +9642,7 @@
         <v>594915.72079452395</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9705,29 +9671,36 @@
         <v>2379662.8831780958</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="3">
+        <f>'SDoVPbT-psgr'!B7</f>
+        <v>7615.0170715103632</v>
+      </c>
+      <c r="C7" s="3">
+        <f>D7</f>
+        <v>4633.1654645849012</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'SDoVPbT-psgr'!D7</f>
+        <v>4633.1654645849012</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7</f>
+        <v>4633.1654645849012</v>
+      </c>
+      <c r="F7" s="3">
+        <f>'SDoVPbT-psgr'!F7</f>
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="3">
+        <f>E7</f>
+        <v>4633.1654645849012</v>
+      </c>
+      <c r="H7" s="3">
+        <f>'SDoVPbT-psgr'!H7</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
+++ b/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
@@ -17,13 +17,14 @@
     <sheet name="Conventional Daycab Trucks" sheetId="5" r:id="rId3"/>
     <sheet name="Conventional Sleeper Trucks" sheetId="6" r:id="rId4"/>
     <sheet name="Motorbikes" sheetId="8" r:id="rId5"/>
-    <sheet name="Calculations" sheetId="7" r:id="rId6"/>
-    <sheet name="Data from BNVP" sheetId="9" r:id="rId7"/>
-    <sheet name="SDoVPbT-psgr" sheetId="2" r:id="rId8"/>
-    <sheet name="SDoVPbT-frgt" sheetId="4" r:id="rId9"/>
+    <sheet name="Freight Motorbikes - India" sheetId="11" r:id="rId6"/>
+    <sheet name="Calculations" sheetId="7" r:id="rId7"/>
+    <sheet name="Data from BNVP" sheetId="9" r:id="rId8"/>
+    <sheet name="SDoVPbT-psgr" sheetId="2" r:id="rId9"/>
+    <sheet name="SDoVPbT-frgt" sheetId="4" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="cpi_2010to2012">[1]About!#REF!</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="663">
   <si>
     <t>SDoVPbT Standard Dev of Vehicle Prices by Technology</t>
   </si>
@@ -1459,15 +1460,9 @@
     <t>Standard Deviation</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>freight HDVs</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>Example New 2017 Motorcycles Selected by Popular Mechanics Magazine (U.S. market)</t>
   </si>
   <si>
@@ -1933,21 +1928,124 @@
     <t>While India-specific prices are available used for the BNVP variable, we find that</t>
   </si>
   <si>
-    <t>measure may not be meaningful. Hence, we use the US values. US assumptions:</t>
-  </si>
-  <si>
     <t>the sample size is limited to a few for each type due to which the standard deviation</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Bajaj RE Maxima</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>lakhs</t>
+  </si>
+  <si>
+    <t>Bajaj RE Optima CNG Auto Rickshaw</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>Atul Gemini Petrol Auto Rickshaw</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Atul Gemini CNG Auto Rickshaw</t>
+  </si>
+  <si>
+    <t>Atul Gemini LPG Auto Rickshaw</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Lohia Auto Humsafar Diesel Auto Rickshaw</t>
+  </si>
+  <si>
+    <t>HERO Raahii Electric Rickshaw</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Piaggio Ape City Smart CNG, LPG, or Petrol</t>
+  </si>
+  <si>
+    <t>CNG, LPG</t>
+  </si>
+  <si>
+    <t>Piaggio Ape City Smart Diesel</t>
+  </si>
+  <si>
+    <t>Mahindra Alfa DX</t>
+  </si>
+  <si>
+    <t>Mahindra eAlfa Mini Electric Rickshaw</t>
+  </si>
+  <si>
+    <t>from trans/BNVP - EPS India 2.1</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
+  <si>
+    <t>US assumptions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measure may not be meaningful. Hence, we use the US values for all vehicle types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">except freight motorbikes. </t>
+  </si>
+  <si>
+    <t>India freight motorbikes:</t>
+  </si>
+  <si>
+    <t>Freight motorbikes are considered as 3-wheelers (autorickshaws) in the India model.</t>
+  </si>
+  <si>
+    <t>Price range is taken from trans/BNVP variable from EPS-India 2.1.0</t>
+  </si>
+  <si>
+    <t>See trans/BNVP variable - tab 'Freight Motorbikes - India'</t>
+  </si>
+  <si>
+    <t>Price (US $)</t>
+  </si>
+  <si>
+    <t>Ruppees per Lakh</t>
+  </si>
+  <si>
+    <t>We convert to 2012 USD, the currency input unit for the model.</t>
+  </si>
+  <si>
+    <t>We convert back to Indian currency in the model's output area.</t>
+  </si>
+  <si>
+    <t>(See "scaling-factors.xlsx" for source info)</t>
+  </si>
+  <si>
+    <t>Ruppees per dollar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2003,6 +2101,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2098,7 +2204,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2147,6 +2253,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="2"/>
@@ -2525,15 +2638,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="64.73046875" customWidth="1"/>
+    <col min="5" max="5" width="56.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -2546,12 +2658,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -2561,198 +2673,206 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B35" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B36" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>519</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B37" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B38" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B39" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
@@ -2762,84 +2882,421 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>525</v>
+      <c r="A59" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>626</v>
-      </c>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>54.77</v>
+      </c>
+      <c r="B78" s="13">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>100000</v>
+      </c>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B82" s="26"/>
+      <c r="C82" s="24"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B83" s="26"/>
+      <c r="C83" s="24"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="26"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B85" s="26"/>
+      <c r="C85" s="24"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B86" s="26"/>
+      <c r="C86" s="24"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B87" s="26"/>
+      <c r="C87" s="24"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B88" s="26"/>
+      <c r="C88" s="24"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B89" s="27"/>
+      <c r="C89" s="24"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="26"/>
+      <c r="C90" s="24"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B91" s="26"/>
+      <c r="C91" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B33" r:id="rId1"/>
     <hyperlink ref="B32" r:id="rId2"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="3" width="24.265625" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="8" width="24.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C2/'Data from BNVP'!B4)</f>
+        <v>21663.926762859195</v>
+      </c>
+      <c r="C2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C3/'Data from BNVP'!B4)</f>
+        <v>17550.150350913391</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C4/'Data from BNVP'!B4)</f>
+        <v>15703.80001929629</v>
+      </c>
+      <c r="E2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C5/'Data from BNVP'!B4)</f>
+        <v>17228.81329081468</v>
+      </c>
+      <c r="F2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C6/'Data from BNVP'!B4)</f>
+        <v>14738.77305885482</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C7/'Data from BNVP'!B4)</f>
+        <v>19508.539203654229</v>
+      </c>
+      <c r="H2" s="3">
+        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C8/'Data from BNVP'!B4)</f>
+        <v>22143.359548864228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <f>E3*('Data from BNVP'!E2/'Data from BNVP'!E5)</f>
+        <v>21135.933029022086</v>
+      </c>
+      <c r="C3" s="3">
+        <f>E3*('Data from BNVP'!E3/'Data from BNVP'!E5)</f>
+        <v>13884.41947332269</v>
+      </c>
+      <c r="D3" s="3">
+        <f>E3*('Data from BNVP'!E4/'Data from BNVP'!E5)</f>
+        <v>13630.200652086061</v>
+      </c>
+      <c r="E3" s="18">
+        <f>Calculations!B3</f>
+        <v>13630.200652086061</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3*('Data from BNVP'!E6/'Data from BNVP'!E5)</f>
+        <v>15832.321026872658</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3*('Data from BNVP'!E7/'Data from BNVP'!E5)</f>
+        <v>15433.756190082944</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3*('Data from BNVP'!E8/'Data from BNVP'!E5)</f>
+        <v>17518.236959664304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <f>$E$3*('Data from BNVP'!G2/'Data from BNVP'!$E$5)</f>
+        <v>9734270.8443508428</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f>$E$3*('Data from BNVP'!G5/'Data from BNVP'!$E$5)</f>
+        <v>6647893.9232045906</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f>$E$3*('Data from BNVP'!G8/'Data from BNVP'!$E$5)</f>
+        <v>15428147.692604657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <f>$E$3*('Data from BNVP'!I2/'Data from BNVP'!$E$5)</f>
+        <v>375357.48757136922</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f>$E$3*('Data from BNVP'!I5/'Data from BNVP'!$E$5)</f>
+        <v>256345.52403102536</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f>$E$3*('Data from BNVP'!I8/'Data from BNVP'!$E$5)</f>
+        <v>594915.72079452395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <f>$E$3*('Data from BNVP'!K2/'Data from BNVP'!$E$5)</f>
+        <v>1501429.9502854769</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f>$E$3*('Data from BNVP'!K5/'Data from BNVP'!$E$5)</f>
+        <v>1025382.0961241014</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>$E$3*('Data from BNVP'!K8/'Data from BNVP'!$E$5)</f>
+        <v>2379662.8831780958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Calculations!B5</f>
+        <v>787.55347823519639</v>
+      </c>
+      <c r="C7" s="3">
+        <f>B7</f>
+        <v>787.55347823519639</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7</f>
+        <v>787.55347823519639</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7</f>
+        <v>787.55347823519639</v>
+      </c>
+      <c r="F7" s="3">
+        <f>D7</f>
+        <v>787.55347823519639</v>
+      </c>
+      <c r="G7" s="3">
+        <f>E7</f>
+        <v>787.55347823519639</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D7</f>
+        <v>787.55347823519639</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2848,7 +3305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2859,24 +3318,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2887,10 +3346,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2901,10 +3360,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2915,10 +3374,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2929,10 +3388,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2943,10 +3402,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" t="s">
         <v>535</v>
-      </c>
-      <c r="B7" t="s">
-        <v>537</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2957,10 +3416,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2971,10 +3430,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2985,10 +3444,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2999,10 +3458,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3013,10 +3472,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3027,10 +3486,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3041,10 +3500,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3055,10 +3514,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3069,10 +3528,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3083,10 +3542,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3097,10 +3556,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3111,10 +3570,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3125,10 +3584,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3139,10 +3598,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3153,10 +3612,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -3167,10 +3626,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B23" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3181,10 +3640,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -3195,10 +3654,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -3209,10 +3668,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3223,10 +3682,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B27" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3237,10 +3696,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3251,10 +3710,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B29" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3265,10 +3724,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3279,10 +3738,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3293,10 +3752,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -3307,10 +3766,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B33" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3321,10 +3780,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B34" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -3335,7 +3794,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B35" s="13">
         <v>1500</v>
@@ -3349,10 +3808,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B36" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -3363,10 +3822,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B37" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -3377,7 +3836,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B38" s="13">
         <v>3</v>
@@ -3391,10 +3850,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -3405,10 +3864,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B40" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -3419,10 +3878,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B41" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -3433,10 +3892,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B42" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -3447,10 +3906,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B43" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -3461,10 +3920,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B44" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -3475,10 +3934,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B45" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -3489,10 +3948,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B46" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -3503,10 +3962,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -3517,10 +3976,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B48" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -3531,10 +3990,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B49" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -3545,10 +4004,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B50" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -3559,10 +4018,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B51" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -8688,7 +9147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8698,26 +9159,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C3">
         <v>8700</v>
@@ -8725,10 +9186,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C4">
         <v>4600</v>
@@ -8736,10 +9197,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C5">
         <v>10500</v>
@@ -8747,10 +9208,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C6">
         <v>6500</v>
@@ -8758,10 +9219,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C7">
         <v>3000</v>
@@ -8769,10 +9230,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -8780,10 +9241,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C9">
         <v>13000</v>
@@ -8791,10 +9252,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C10">
         <v>9000</v>
@@ -8802,10 +9263,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C11">
         <v>19000</v>
@@ -8813,10 +9274,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C12">
         <v>5500</v>
@@ -8829,9 +9290,269 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="38.73046875" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E2">
+        <f>C2*About!$A$81/About!$A$78</f>
+        <v>3651.6341062625525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E3">
+        <f>C3*About!$A$81/About!$A$78</f>
+        <v>3651.6341062625525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4">
+        <v>2.1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E4">
+        <f>C4*About!$A$81/About!$A$78</f>
+        <v>3834.2158115756797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C5">
+        <v>2.15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E5">
+        <f>C5*About!$A$81/About!$A$78</f>
+        <v>3925.5066642322436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E6">
+        <f>C6*About!$A$81/About!$A$78</f>
+        <v>4564.5426328281901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E7">
+        <f>C7*About!$A$81/About!$A$78</f>
+        <v>2373.5621690706589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E8">
+        <f>C8*About!$A$81/About!$A$78</f>
+        <v>2008.3987584444039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C9">
+        <v>1.75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9">
+        <f>C9*About!$A$81/About!$A$78</f>
+        <v>3195.1798429797332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>643</v>
+      </c>
+      <c r="B10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C10">
+        <v>1.75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>632</v>
+      </c>
+      <c r="E10">
+        <f>C10*About!$A$81/About!$A$78</f>
+        <v>3195.1798429797332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E11">
+        <f>C11*About!$A$81/About!$A$78</f>
+        <v>3286.470695636297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>646</v>
+      </c>
+      <c r="B12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C12">
+        <v>1.52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E12">
+        <f>C12*About!$A$81/About!$A$78</f>
+        <v>2775.2419207595399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>647</v>
+      </c>
+      <c r="B13" t="s">
+        <v>642</v>
+      </c>
+      <c r="C13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>632</v>
+      </c>
+      <c r="E13">
+        <f>C13*About!$A$81/About!$A$78</f>
+        <v>2044.9150995070295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8839,51 +9560,48 @@
     <col min="2" max="2" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>469</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B2" s="17">
         <f>_xlfn.STDEV.S(LDVs!D2:D51)</f>
         <v>8309.8800311829455</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" s="3">
         <f>_xlfn.STDEV.S('Conventional Daycab Trucks'!C:C,'Conventional Sleeper Trucks'!C:C)</f>
         <v>13630.200652086061</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B4" s="3">
         <f>_xlfn.STDEV.S(Motorbikes!C3:C12)</f>
         <v>4633.1654645849012</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>473</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="3">
+        <f>_xlfn.STDEV.S('Freight Motorbikes - India'!E2:E13)</f>
+        <v>787.55347823519639</v>
       </c>
     </row>
   </sheetData>
@@ -8892,7 +9610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -8909,43 +9627,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>518</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -9155,7 +9873,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B7" s="3">
         <v>39464.208493999999</v>
@@ -9196,7 +9914,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B8" s="3">
         <v>71671.802858802301</v>
@@ -9238,237 +9956,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="3" width="24.265625" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="8" width="24.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <f>D2*('Data from BNVP'!B2/'Data from BNVP'!B4)</f>
-        <v>13658.022529814965</v>
-      </c>
-      <c r="C2" s="3">
-        <f>D2*('Data from BNVP'!B3/'Data from BNVP'!B4)</f>
-        <v>10302.330516464528</v>
-      </c>
-      <c r="D2" s="18">
-        <f>Calculations!B2</f>
-        <v>8309.8800311829455</v>
-      </c>
-      <c r="E2" s="3">
-        <f>D2*('Data from BNVP'!B5/'Data from BNVP'!B4)</f>
-        <v>8807.824444583006</v>
-      </c>
-      <c r="F2" s="3">
-        <f>D2*('Data from BNVP'!B6/'Data from BNVP'!B4)</f>
-        <v>10230.832818563998</v>
-      </c>
-      <c r="G2" s="3">
-        <f>D2*('Data from BNVP'!B7/'Data from BNVP'!B4)</f>
-        <v>10618.899938992296</v>
-      </c>
-      <c r="H2" s="3">
-        <f>D2*('Data from BNVP'!B8/'Data from BNVP'!B4)</f>
-        <v>19285.213920368249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
-        <f>'SDoVPbT-frgt'!E$3*('Data from BNVP'!D2/'Data from BNVP'!$E$5)</f>
-        <v>72164.341161022006</v>
-      </c>
-      <c r="C3" s="3">
-        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D3/'Data from BNVP'!E5)</f>
-        <v>50202.897446801551</v>
-      </c>
-      <c r="D3" s="3">
-        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D4/'Data from BNVP'!E5)</f>
-        <v>49283.700109375168</v>
-      </c>
-      <c r="E3" s="3">
-        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D5/'Data from BNVP'!E5)</f>
-        <v>49283.700109375168</v>
-      </c>
-      <c r="F3" s="3">
-        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D6/'Data from BNVP'!E5)</f>
-        <v>57246.065662601075</v>
-      </c>
-      <c r="G3" s="3">
-        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D7/'Data from BNVP'!E5)</f>
-        <v>62977.886337819873</v>
-      </c>
-      <c r="H3" s="3">
-        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D8/'Data from BNVP'!E5)</f>
-        <v>114375.50191218297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F2/'Data from BNVP'!$E$5)</f>
-        <v>9734270.8443508428</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F5/'Data from BNVP'!$E$5)</f>
-        <v>6647893.9232045906</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F8/'Data from BNVP'!$E$5)</f>
-        <v>15428147.692604657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H2/'Data from BNVP'!$E$5)</f>
-        <v>375357.48757136922</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H5/'Data from BNVP'!$E$5)</f>
-        <v>256345.52403102536</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H8/'Data from BNVP'!$E$5)</f>
-        <v>594915.72079452395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J2/'Data from BNVP'!$E$5)</f>
-        <v>4504.2898508564313</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J4/'Data from BNVP'!$E$5)</f>
-        <v>3076.1462883723043</v>
-      </c>
-      <c r="E6" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J5/'Data from BNVP'!$E$5)</f>
-        <v>3076.1462883723043</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J8/'Data from BNVP'!$E$5)</f>
-        <v>7138.988649534288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <f>D7*('Data from BNVP'!L2/'Data from BNVP'!L4)</f>
-        <v>7615.0170715103632</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <f>Calculations!B4</f>
-        <v>4633.1654645849012</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9479,8 +9966,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9494,7 +9981,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -9512,10 +9999,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -9523,32 +10010,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C2/'Data from BNVP'!B4)</f>
-        <v>21663.926762859195</v>
+        <f>D2*('Data from BNVP'!B2/'Data from BNVP'!B4)</f>
+        <v>13658.022529814965</v>
       </c>
       <c r="C2" s="3">
-        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C3/'Data from BNVP'!B4)</f>
-        <v>17550.150350913391</v>
-      </c>
-      <c r="D2" s="3">
-        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C4/'Data from BNVP'!B4)</f>
-        <v>15703.80001929629</v>
+        <f>D2*('Data from BNVP'!B3/'Data from BNVP'!B4)</f>
+        <v>10302.330516464528</v>
+      </c>
+      <c r="D2" s="18">
+        <f>Calculations!B2</f>
+        <v>8309.8800311829455</v>
       </c>
       <c r="E2" s="3">
-        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C5/'Data from BNVP'!B4)</f>
-        <v>17228.81329081468</v>
+        <f>D2*('Data from BNVP'!B5/'Data from BNVP'!B4)</f>
+        <v>8807.824444583006</v>
       </c>
       <c r="F2" s="3">
-        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C6/'Data from BNVP'!B4)</f>
-        <v>14738.77305885482</v>
+        <f>D2*('Data from BNVP'!B6/'Data from BNVP'!B4)</f>
+        <v>10230.832818563998</v>
       </c>
       <c r="G2" s="3">
-        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C7/'Data from BNVP'!B4)</f>
-        <v>19508.539203654229</v>
+        <f>D2*('Data from BNVP'!B7/'Data from BNVP'!B4)</f>
+        <v>10618.899938992296</v>
       </c>
       <c r="H2" s="3">
-        <f>'SDoVPbT-psgr'!D2*('Data from BNVP'!C8/'Data from BNVP'!B4)</f>
-        <v>22143.359548864228</v>
+        <f>D2*('Data from BNVP'!B8/'Data from BNVP'!B4)</f>
+        <v>19285.213920368249</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -9556,32 +10043,32 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <f>E3*('Data from BNVP'!E2/'Data from BNVP'!E5)</f>
-        <v>21135.933029022086</v>
+        <f>'SDoVPbT-frgt'!E$3*('Data from BNVP'!D2/'Data from BNVP'!$E$5)</f>
+        <v>72164.341161022006</v>
       </c>
       <c r="C3" s="3">
-        <f>E3*('Data from BNVP'!E3/'Data from BNVP'!E5)</f>
-        <v>13884.41947332269</v>
+        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D3/'Data from BNVP'!E5)</f>
+        <v>50202.897446801551</v>
       </c>
       <c r="D3" s="3">
-        <f>E3*('Data from BNVP'!E4/'Data from BNVP'!E5)</f>
-        <v>13630.200652086061</v>
-      </c>
-      <c r="E3" s="18">
-        <f>Calculations!B3</f>
-        <v>13630.200652086061</v>
+        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D4/'Data from BNVP'!E5)</f>
+        <v>49283.700109375168</v>
+      </c>
+      <c r="E3" s="3">
+        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D5/'Data from BNVP'!E5)</f>
+        <v>49283.700109375168</v>
       </c>
       <c r="F3" s="3">
-        <f>E3*('Data from BNVP'!E6/'Data from BNVP'!E5)</f>
-        <v>15832.321026872658</v>
+        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D6/'Data from BNVP'!E5)</f>
+        <v>57246.065662601075</v>
       </c>
       <c r="G3" s="3">
-        <f>E3*('Data from BNVP'!E7/'Data from BNVP'!E5)</f>
-        <v>15433.756190082944</v>
+        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D7/'Data from BNVP'!E5)</f>
+        <v>62977.886337819873</v>
       </c>
       <c r="H3" s="3">
-        <f>E3*('Data from BNVP'!E8/'Data from BNVP'!E5)</f>
-        <v>17518.236959664304</v>
+        <f>'SDoVPbT-frgt'!E3*('Data from BNVP'!D8/'Data from BNVP'!E5)</f>
+        <v>114375.50191218297</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -9589,7 +10076,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <f>$E$3*('Data from BNVP'!G2/'Data from BNVP'!$E$5)</f>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F2/'Data from BNVP'!$E$5)</f>
         <v>9734270.8443508428</v>
       </c>
       <c r="C4" s="3">
@@ -9599,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <f>$E$3*('Data from BNVP'!G5/'Data from BNVP'!$E$5)</f>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F5/'Data from BNVP'!$E$5)</f>
         <v>6647893.9232045906</v>
       </c>
       <c r="F4">
@@ -9609,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f>$E$3*('Data from BNVP'!G8/'Data from BNVP'!$E$5)</f>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!F8/'Data from BNVP'!$E$5)</f>
         <v>15428147.692604657</v>
       </c>
     </row>
@@ -9618,7 +10105,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <f>$E$3*('Data from BNVP'!I2/'Data from BNVP'!$E$5)</f>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H2/'Data from BNVP'!$E$5)</f>
         <v>375357.48757136922</v>
       </c>
       <c r="C5" s="3">
@@ -9628,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <f>$E$3*('Data from BNVP'!I5/'Data from BNVP'!$E$5)</f>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H5/'Data from BNVP'!$E$5)</f>
         <v>256345.52403102536</v>
       </c>
       <c r="F5">
@@ -9638,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>$E$3*('Data from BNVP'!I8/'Data from BNVP'!$E$5)</f>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!H8/'Data from BNVP'!$E$5)</f>
         <v>594915.72079452395</v>
       </c>
     </row>
@@ -9647,18 +10134,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <f>$E$3*('Data from BNVP'!K2/'Data from BNVP'!$E$5)</f>
-        <v>1501429.9502854769</v>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J2/'Data from BNVP'!$E$5)</f>
+        <v>4504.2898508564313</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J4/'Data from BNVP'!$E$5)</f>
+        <v>3076.1462883723043</v>
       </c>
       <c r="E6" s="3">
-        <f>$E$3*('Data from BNVP'!K5/'Data from BNVP'!$E$5)</f>
-        <v>1025382.0961241014</v>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J5/'Data from BNVP'!$E$5)</f>
+        <v>3076.1462883723043</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9667,8 +10155,8 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f>$E$3*('Data from BNVP'!K8/'Data from BNVP'!$E$5)</f>
-        <v>2379662.8831780958</v>
+        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J8/'Data from BNVP'!$E$5)</f>
+        <v>7138.988649534288</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -9676,31 +10164,26 @@
         <v>13</v>
       </c>
       <c r="B7" s="3">
-        <f>'SDoVPbT-psgr'!B7</f>
+        <f>D7*('Data from BNVP'!L2/'Data from BNVP'!L4)</f>
         <v>7615.0170715103632</v>
       </c>
-      <c r="C7" s="3">
-        <f>D7</f>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <f>Calculations!B4</f>
         <v>4633.1654645849012</v>
       </c>
-      <c r="D7" s="3">
-        <f>'SDoVPbT-psgr'!D7</f>
-        <v>4633.1654645849012</v>
-      </c>
-      <c r="E7" s="3">
-        <f>D7</f>
-        <v>4633.1654645849012</v>
-      </c>
-      <c r="F7" s="3">
-        <f>'SDoVPbT-psgr'!F7</f>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <f>E7</f>
-        <v>4633.1654645849012</v>
-      </c>
-      <c r="H7" s="3">
-        <f>'SDoVPbT-psgr'!H7</f>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
+++ b/InputData/trans/SDoVPbT/Std Dev of Veh Prices by Technology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\SDoVPbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\SDoVPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD51059A-640E-41F8-A8EB-2E7CD5B6E968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,12 +33,15 @@
     <definedName name="cpi_2014to2012">[1]About!$A$103</definedName>
     <definedName name="cpi_2016to2012">[1]About!$A$105</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2039,7 +2043,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -2262,16 +2266,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="2"/>
+    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Parent row" xfId="7"/>
-    <cellStyle name="Table title" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2427,6 +2431,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2462,6 +2483,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2637,23 +2675,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.73046875" customWidth="1"/>
-    <col min="5" max="5" width="56.86328125" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2661,150 +2699,150 @@
         <v>594</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>496</v>
       </c>
@@ -2812,7 +2850,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>519</v>
       </c>
@@ -2820,182 +2858,182 @@
         <v>656</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>54.77</v>
       </c>
@@ -3003,61 +3041,61 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>658</v>
       </c>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>100000</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" s="26"/>
       <c r="C82" s="24"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" s="26"/>
       <c r="C83" s="24"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" s="26"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" s="26"/>
       <c r="C85" s="24"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" s="26"/>
       <c r="C86" s="24"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" s="26"/>
       <c r="C87" s="24"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" s="26"/>
       <c r="C88" s="24"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="27"/>
       <c r="C89" s="24"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" s="26"/>
       <c r="C90" s="24"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" s="26"/>
       <c r="C91" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
-    <hyperlink ref="B32" r:id="rId2"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3065,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3075,16 +3113,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="3" width="24.265625" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="8" width="24.265625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>621</v>
       </c>
@@ -3110,7 +3148,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3143,7 +3181,7 @@
         <v>22143.359548864228</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3176,7 +3214,7 @@
         <v>17518.236959664304</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3205,7 +3243,7 @@
         <v>15428147.692604657</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3234,7 +3272,7 @@
         <v>594915.72079452395</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3263,7 +3301,7 @@
         <v>2379662.8831780958</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3302,21 +3340,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>473</v>
       </c>
@@ -3330,7 +3368,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>482</v>
       </c>
@@ -3344,7 +3382,7 @@
         <v>24045</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>482</v>
       </c>
@@ -3358,7 +3396,7 @@
         <v>18740</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>482</v>
       </c>
@@ -3372,7 +3410,7 @@
         <v>22455</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>533</v>
       </c>
@@ -3386,7 +3424,7 @@
         <v>30630</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -3400,7 +3438,7 @@
         <v>30745</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>533</v>
       </c>
@@ -3414,7 +3452,7 @@
         <v>24410</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>536</v>
       </c>
@@ -3428,7 +3466,7 @@
         <v>27110</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>538</v>
       </c>
@@ -3442,7 +3480,7 @@
         <v>24045</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>540</v>
       </c>
@@ -3456,7 +3494,7 @@
         <v>30395</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>542</v>
       </c>
@@ -3470,7 +3508,7 @@
         <v>22795</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>544</v>
       </c>
@@ -3484,7 +3522,7 @@
         <v>23580</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>533</v>
       </c>
@@ -3498,7 +3536,7 @@
         <v>24320</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -3512,7 +3550,7 @@
         <v>23995</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>542</v>
       </c>
@@ -3526,7 +3564,7 @@
         <v>25645</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>536</v>
       </c>
@@ -3540,7 +3578,7 @@
         <v>31660</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>533</v>
       </c>
@@ -3554,7 +3592,7 @@
         <v>23070</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>536</v>
       </c>
@@ -3568,7 +3606,7 @@
         <v>23750</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>552</v>
       </c>
@@ -3582,7 +3620,7 @@
         <v>24420</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>536</v>
       </c>
@@ -3596,7 +3634,7 @@
         <v>25185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>540</v>
       </c>
@@ -3610,7 +3648,7 @@
         <v>23695</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>556</v>
       </c>
@@ -3624,7 +3662,7 @@
         <v>26995</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>544</v>
       </c>
@@ -3638,7 +3676,7 @@
         <v>25905</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>559</v>
       </c>
@@ -3652,7 +3690,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>561</v>
       </c>
@@ -3666,7 +3704,7 @@
         <v>43120</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>563</v>
       </c>
@@ -3680,7 +3718,7 @@
         <v>28995</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>565</v>
       </c>
@@ -3694,7 +3732,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>567</v>
       </c>
@@ -3708,7 +3746,7 @@
         <v>21950</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>482</v>
       </c>
@@ -3722,7 +3760,7 @@
         <v>19465</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>533</v>
       </c>
@@ -3736,7 +3774,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>533</v>
       </c>
@@ -3750,7 +3788,7 @@
         <v>34210</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>482</v>
       </c>
@@ -3764,7 +3802,7 @@
         <v>29475</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>573</v>
       </c>
@@ -3778,7 +3816,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>536</v>
       </c>
@@ -3792,7 +3830,7 @@
         <v>28950</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>576</v>
       </c>
@@ -3806,7 +3844,7 @@
         <v>26495</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>544</v>
       </c>
@@ -3820,7 +3858,7 @@
         <v>27785</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>567</v>
       </c>
@@ -3834,7 +3872,7 @@
         <v>22700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>538</v>
       </c>
@@ -3848,7 +3886,7 @@
         <v>17845</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>544</v>
       </c>
@@ -3862,7 +3900,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>494</v>
       </c>
@@ -3876,7 +3914,7 @@
         <v>56600</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>567</v>
       </c>
@@ -3890,7 +3928,7 @@
         <v>17150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>556</v>
       </c>
@@ -3904,7 +3942,7 @@
         <v>27995</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>559</v>
       </c>
@@ -3918,7 +3956,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>544</v>
       </c>
@@ -3932,7 +3970,7 @@
         <v>21680</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>573</v>
       </c>
@@ -3946,7 +3984,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>544</v>
       </c>
@@ -3960,7 +3998,7 @@
         <v>16975</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>552</v>
       </c>
@@ -3974,7 +4012,7 @@
         <v>29770</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>589</v>
       </c>
@@ -3988,7 +4026,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>494</v>
       </c>
@@ -4002,7 +4040,7 @@
         <v>33450</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>567</v>
       </c>
@@ -4016,7 +4054,7 @@
         <v>25350</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>536</v>
       </c>
@@ -4036,19 +4074,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4059,7 +4097,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4070,7 +4108,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4081,7 +4119,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4092,7 +4130,7 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4103,7 +4141,7 @@
         <v>122900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4114,7 +4152,7 @@
         <v>154900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -4125,7 +4163,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -4136,7 +4174,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4147,7 +4185,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4158,7 +4196,7 @@
         <v>131175</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4169,7 +4207,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -4180,7 +4218,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -4191,7 +4229,7 @@
         <v>127516</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4202,7 +4240,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4213,7 +4251,7 @@
         <v>127450</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4224,7 +4262,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -4235,7 +4273,7 @@
         <v>128530</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4246,7 +4284,7 @@
         <v>132698</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -4257,7 +4295,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -4268,7 +4306,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -4279,7 +4317,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -4290,7 +4328,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -4301,7 +4339,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -4312,7 +4350,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4323,7 +4361,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -4334,7 +4372,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -4345,7 +4383,7 @@
         <v>128149</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -4356,7 +4394,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4367,7 +4405,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -4378,7 +4416,7 @@
         <v>138800</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4389,7 +4427,7 @@
         <v>124167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4400,7 +4438,7 @@
         <v>124500</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -4411,7 +4449,7 @@
         <v>173500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -4422,7 +4460,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -4433,7 +4471,7 @@
         <v>124791</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -4444,7 +4482,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -4455,7 +4493,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -4466,7 +4504,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -4477,7 +4515,7 @@
         <v>125046</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -4488,7 +4526,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -4499,7 +4537,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -4510,7 +4548,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -4521,7 +4559,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -4532,7 +4570,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -4543,7 +4581,7 @@
         <v>134672</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4554,7 +4592,7 @@
         <v>144900</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -4565,7 +4603,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -4576,7 +4614,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -4587,7 +4625,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -4598,7 +4636,7 @@
         <v>144750</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -4609,7 +4647,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -4620,7 +4658,7 @@
         <v>127450</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -4631,7 +4669,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -4642,7 +4680,7 @@
         <v>134675</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -4653,7 +4691,7 @@
         <v>134672</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -4664,7 +4702,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4675,7 +4713,7 @@
         <v>112520</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -4686,7 +4724,7 @@
         <v>129950</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -4697,7 +4735,7 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4708,7 +4746,7 @@
         <v>126576</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -4719,7 +4757,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -4730,7 +4768,7 @@
         <v>132700</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -4741,7 +4779,7 @@
         <v>121850</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -4752,7 +4790,7 @@
         <v>137085</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -4763,7 +4801,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -4774,7 +4812,7 @@
         <v>118900</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -4785,7 +4823,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -4796,7 +4834,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -4807,7 +4845,7 @@
         <v>120874</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -4818,7 +4856,7 @@
         <v>126994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -4829,7 +4867,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -4840,7 +4878,7 @@
         <v>140759</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -4851,7 +4889,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -4862,7 +4900,7 @@
         <v>128733</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -4873,7 +4911,7 @@
         <v>129526</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -4884,7 +4922,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -4895,7 +4933,7 @@
         <v>137281</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -4906,7 +4944,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -4917,7 +4955,7 @@
         <v>133450</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -4928,7 +4966,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -4939,7 +4977,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -4950,7 +4988,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -4961,7 +4999,7 @@
         <v>136005</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -4972,7 +5010,7 @@
         <v>128570</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -4983,7 +5021,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -4994,7 +5032,7 @@
         <v>126948</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -5005,7 +5043,7 @@
         <v>128950</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>123</v>
       </c>
@@ -5016,7 +5054,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>124</v>
       </c>
@@ -5027,7 +5065,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>125</v>
       </c>
@@ -5038,7 +5076,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -5049,7 +5087,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -5060,7 +5098,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>128</v>
       </c>
@@ -5071,7 +5109,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -5082,7 +5120,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -5093,7 +5131,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>132</v>
       </c>
@@ -5104,7 +5142,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -5115,7 +5153,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -5126,7 +5164,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -5137,7 +5175,7 @@
         <v>142008</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -5148,7 +5186,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>137</v>
       </c>
@@ -5159,7 +5197,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -5170,7 +5208,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -5181,7 +5219,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>140</v>
       </c>
@@ -5192,7 +5230,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -5203,7 +5241,7 @@
         <v>140060</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>142</v>
       </c>
@@ -5214,7 +5252,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -5225,7 +5263,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -5236,7 +5274,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>145</v>
       </c>
@@ -5247,7 +5285,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>146</v>
       </c>
@@ -5258,7 +5296,7 @@
         <v>139932</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -5269,7 +5307,7 @@
         <v>128500</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>148</v>
       </c>
@@ -5280,7 +5318,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>149</v>
       </c>
@@ -5291,7 +5329,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>150</v>
       </c>
@@ -5302,7 +5340,7 @@
         <v>132444</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>151</v>
       </c>
@@ -5313,7 +5351,7 @@
         <v>143314</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -5324,7 +5362,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>153</v>
       </c>
@@ -5335,7 +5373,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>154</v>
       </c>
@@ -5346,7 +5384,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -5357,7 +5395,7 @@
         <v>144214</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -5368,7 +5406,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>157</v>
       </c>
@@ -5379,7 +5417,7 @@
         <v>133745</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>158</v>
       </c>
@@ -5390,7 +5428,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>159</v>
       </c>
@@ -5401,7 +5439,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -5412,7 +5450,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>161</v>
       </c>
@@ -5423,7 +5461,7 @@
         <v>152980</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>163</v>
       </c>
@@ -5434,7 +5472,7 @@
         <v>128570</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>164</v>
       </c>
@@ -5445,7 +5483,7 @@
         <v>123648</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>165</v>
       </c>
@@ -5456,7 +5494,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>166</v>
       </c>
@@ -5467,7 +5505,7 @@
         <v>130086</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -5478,7 +5516,7 @@
         <v>128295</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>169</v>
       </c>
@@ -5489,7 +5527,7 @@
         <v>128397</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -5500,7 +5538,7 @@
         <v>130746</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>171</v>
       </c>
@@ -5511,7 +5549,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>172</v>
       </c>
@@ -5522,7 +5560,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>173</v>
       </c>
@@ -5533,7 +5571,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>174</v>
       </c>
@@ -5544,7 +5582,7 @@
         <v>134920</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>176</v>
       </c>
@@ -5555,7 +5593,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -5566,7 +5604,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>177</v>
       </c>
@@ -5577,7 +5615,7 @@
         <v>130436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>178</v>
       </c>
@@ -5588,7 +5626,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>179</v>
       </c>
@@ -5599,7 +5637,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>180</v>
       </c>
@@ -5610,7 +5648,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -5621,7 +5659,7 @@
         <v>129330</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>182</v>
       </c>
@@ -5632,7 +5670,7 @@
         <v>133744</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>183</v>
       </c>
@@ -5643,7 +5681,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -5654,7 +5692,7 @@
         <v>136005</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>185</v>
       </c>
@@ -5665,7 +5703,7 @@
         <v>127078</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>186</v>
       </c>
@@ -5676,7 +5714,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -5687,7 +5725,7 @@
         <v>117149</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>188</v>
       </c>
@@ -5698,7 +5736,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>189</v>
       </c>
@@ -5709,7 +5747,7 @@
         <v>136219</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>190</v>
       </c>
@@ -5720,7 +5758,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -5731,7 +5769,7 @@
         <v>123785</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>192</v>
       </c>
@@ -5742,7 +5780,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>193</v>
       </c>
@@ -5753,7 +5791,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>194</v>
       </c>
@@ -5764,7 +5802,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>195</v>
       </c>
@@ -5775,7 +5813,7 @@
         <v>148677</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>196</v>
       </c>
@@ -5786,7 +5824,7 @@
         <v>137900</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>198</v>
       </c>
@@ -5797,7 +5835,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -5808,7 +5846,7 @@
         <v>131683</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -5819,7 +5857,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>201</v>
       </c>
@@ -5830,7 +5868,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>202</v>
       </c>
@@ -5841,7 +5879,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>203</v>
       </c>
@@ -5852,7 +5890,7 @@
         <v>130881</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>204</v>
       </c>
@@ -5863,7 +5901,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
@@ -5874,7 +5912,7 @@
         <v>156800</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -5885,7 +5923,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
@@ -5896,7 +5934,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
@@ -5907,7 +5945,7 @@
         <v>129712</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -5918,7 +5956,7 @@
         <v>136345</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
@@ -5929,7 +5967,7 @@
         <v>120617</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>
@@ -5940,7 +5978,7 @@
         <v>127111</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -5951,7 +5989,7 @@
         <v>137454</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -5962,7 +6000,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>214</v>
       </c>
@@ -5973,7 +6011,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>130</v>
       </c>
@@ -5984,7 +6022,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>216</v>
       </c>
@@ -5995,7 +6033,7 @@
         <v>130256</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>217</v>
       </c>
@@ -6006,7 +6044,7 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>218</v>
       </c>
@@ -6017,7 +6055,7 @@
         <v>133409</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -6028,7 +6066,7 @@
         <v>138957</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>220</v>
       </c>
@@ -6039,7 +6077,7 @@
         <v>128733</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>221</v>
       </c>
@@ -6050,7 +6088,7 @@
         <v>129526</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>222</v>
       </c>
@@ -6061,7 +6099,7 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>223</v>
       </c>
@@ -6072,7 +6110,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>225</v>
       </c>
@@ -6083,7 +6121,7 @@
         <v>133801</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>226</v>
       </c>
@@ -6094,7 +6132,7 @@
         <v>135523</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>227</v>
       </c>
@@ -6105,7 +6143,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>228</v>
       </c>
@@ -6116,7 +6154,7 @@
         <v>128676</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>229</v>
       </c>
@@ -6127,7 +6165,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>230</v>
       </c>
@@ -6138,7 +6176,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>231</v>
       </c>
@@ -6149,7 +6187,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>232</v>
       </c>
@@ -6160,7 +6198,7 @@
         <v>120617</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>233</v>
       </c>
@@ -6171,7 +6209,7 @@
         <v>132018</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>234</v>
       </c>
@@ -6182,7 +6220,7 @@
         <v>289000</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>235</v>
       </c>
@@ -6193,7 +6231,7 @@
         <v>135500</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>236</v>
       </c>
@@ -6204,7 +6242,7 @@
         <v>149592</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>237</v>
       </c>
@@ -6215,7 +6253,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>238</v>
       </c>
@@ -6226,7 +6264,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>239</v>
       </c>
@@ -6237,7 +6275,7 @@
         <v>131450</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>240</v>
       </c>
@@ -6248,7 +6286,7 @@
         <v>138775</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>241</v>
       </c>
@@ -6259,7 +6297,7 @@
         <v>138775</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>242</v>
       </c>
@@ -6270,7 +6308,7 @@
         <v>131369</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>243</v>
       </c>
@@ -6281,7 +6319,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>244</v>
       </c>
@@ -6292,7 +6330,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>245</v>
       </c>
@@ -6303,7 +6341,7 @@
         <v>124693</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>246</v>
       </c>
@@ -6314,7 +6352,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>247</v>
       </c>
@@ -6325,7 +6363,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>248</v>
       </c>
@@ -6336,7 +6374,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>249</v>
       </c>
@@ -6347,7 +6385,7 @@
         <v>126539</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>250</v>
       </c>
@@ -6358,7 +6396,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>251</v>
       </c>
@@ -6369,7 +6407,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>252</v>
       </c>
@@ -6380,7 +6418,7 @@
         <v>132551</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>253</v>
       </c>
@@ -6391,7 +6429,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>254</v>
       </c>
@@ -6402,7 +6440,7 @@
         <v>147838</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>255</v>
       </c>
@@ -6413,7 +6451,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>256</v>
       </c>
@@ -6424,7 +6462,7 @@
         <v>127513</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>257</v>
       </c>
@@ -6435,7 +6473,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>258</v>
       </c>
@@ -6446,7 +6484,7 @@
         <v>151734</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>259</v>
       </c>
@@ -6457,7 +6495,7 @@
         <v>132500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>260</v>
       </c>
@@ -6468,7 +6506,7 @@
         <v>174105</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>261</v>
       </c>
@@ -6479,7 +6517,7 @@
         <v>140253</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>262</v>
       </c>
@@ -6490,7 +6528,7 @@
         <v>132250</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>263</v>
       </c>
@@ -6501,7 +6539,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>264</v>
       </c>
@@ -6512,7 +6550,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>265</v>
       </c>
@@ -6523,7 +6561,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>266</v>
       </c>
@@ -6534,7 +6572,7 @@
         <v>207200</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>267</v>
       </c>
@@ -6545,7 +6583,7 @@
         <v>132444</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>268</v>
       </c>
@@ -6556,7 +6594,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>269</v>
       </c>
@@ -6567,7 +6605,7 @@
         <v>124526</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>270</v>
       </c>
@@ -6578,7 +6616,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>130</v>
       </c>
@@ -6589,7 +6627,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>271</v>
       </c>
@@ -6600,7 +6638,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>272</v>
       </c>
@@ -6611,7 +6649,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>273</v>
       </c>
@@ -6622,7 +6660,7 @@
         <v>129462</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>274</v>
       </c>
@@ -6633,7 +6671,7 @@
         <v>128030</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>275</v>
       </c>
@@ -6644,7 +6682,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>130</v>
       </c>
@@ -6655,7 +6693,7 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>276</v>
       </c>
@@ -6666,7 +6704,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>277</v>
       </c>
@@ -6677,7 +6715,7 @@
         <v>130257</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>278</v>
       </c>
@@ -6688,7 +6726,7 @@
         <v>132180</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>279</v>
       </c>
@@ -6699,7 +6737,7 @@
         <v>133680</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>280</v>
       </c>
@@ -6710,7 +6748,7 @@
         <v>179120</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>281</v>
       </c>
@@ -6721,7 +6759,7 @@
         <v>179120</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>282</v>
       </c>
@@ -6732,7 +6770,7 @@
         <v>127740</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>283</v>
       </c>
@@ -6743,7 +6781,7 @@
         <v>120566</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>284</v>
       </c>
@@ -6754,7 +6792,7 @@
         <v>129190</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>285</v>
       </c>
@@ -6772,19 +6810,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -6795,7 +6833,7 @@
         <v>142405</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -6806,7 +6844,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>291</v>
       </c>
@@ -6817,7 +6855,7 @@
         <v>125950</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -6828,7 +6866,7 @@
         <v>142988</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6839,7 +6877,7 @@
         <v>136835</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>295</v>
       </c>
@@ -6850,7 +6888,7 @@
         <v>145650</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -6861,7 +6899,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -6872,7 +6910,7 @@
         <v>148600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -6883,7 +6921,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>301</v>
       </c>
@@ -6894,7 +6932,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>303</v>
       </c>
@@ -6905,7 +6943,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>304</v>
       </c>
@@ -6916,7 +6954,7 @@
         <v>143860</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>305</v>
       </c>
@@ -6927,7 +6965,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>306</v>
       </c>
@@ -6938,7 +6976,7 @@
         <v>148275</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -6949,7 +6987,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>308</v>
       </c>
@@ -6960,7 +6998,7 @@
         <v>140608</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -6971,7 +7009,7 @@
         <v>165536</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -6982,7 +7020,7 @@
         <v>151764</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>311</v>
       </c>
@@ -6993,7 +7031,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -7004,7 +7042,7 @@
         <v>165718</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -7015,7 +7053,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>314</v>
       </c>
@@ -7026,7 +7064,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -7037,7 +7075,7 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>316</v>
       </c>
@@ -7048,7 +7086,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>317</v>
       </c>
@@ -7059,7 +7097,7 @@
         <v>141750</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>318</v>
       </c>
@@ -7070,7 +7108,7 @@
         <v>145934</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>319</v>
       </c>
@@ -7081,7 +7119,7 @@
         <v>141150</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>320</v>
       </c>
@@ -7092,7 +7130,7 @@
         <v>144500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>321</v>
       </c>
@@ -7103,7 +7141,7 @@
         <v>136500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>322</v>
       </c>
@@ -7114,7 +7152,7 @@
         <v>138500</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>323</v>
       </c>
@@ -7125,7 +7163,7 @@
         <v>140500</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>324</v>
       </c>
@@ -7136,7 +7174,7 @@
         <v>144775</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>325</v>
       </c>
@@ -7147,7 +7185,7 @@
         <v>147555</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>326</v>
       </c>
@@ -7158,7 +7196,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>327</v>
       </c>
@@ -7169,7 +7207,7 @@
         <v>131211</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -7180,7 +7218,7 @@
         <v>147500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>329</v>
       </c>
@@ -7191,7 +7229,7 @@
         <v>141600</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>330</v>
       </c>
@@ -7202,7 +7240,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>331</v>
       </c>
@@ -7213,7 +7251,7 @@
         <v>155900</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>332</v>
       </c>
@@ -7224,7 +7262,7 @@
         <v>137500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>333</v>
       </c>
@@ -7235,7 +7273,7 @@
         <v>136483</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>334</v>
       </c>
@@ -7246,7 +7284,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -7257,7 +7295,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>336</v>
       </c>
@@ -7268,7 +7306,7 @@
         <v>127995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>337</v>
       </c>
@@ -7279,7 +7317,7 @@
         <v>145385</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>338</v>
       </c>
@@ -7290,7 +7328,7 @@
         <v>145180</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>339</v>
       </c>
@@ -7301,7 +7339,7 @@
         <v>140460</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -7312,7 +7350,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>341</v>
       </c>
@@ -7323,7 +7361,7 @@
         <v>137468</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>342</v>
       </c>
@@ -7334,7 +7372,7 @@
         <v>148351</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>343</v>
       </c>
@@ -7345,7 +7383,7 @@
         <v>153543</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>344</v>
       </c>
@@ -7356,7 +7394,7 @@
         <v>147429</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>345</v>
       </c>
@@ -7367,7 +7405,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>346</v>
       </c>
@@ -7378,7 +7416,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>347</v>
       </c>
@@ -7389,7 +7427,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>348</v>
       </c>
@@ -7400,7 +7438,7 @@
         <v>141245</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>349</v>
       </c>
@@ -7411,7 +7449,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>346</v>
       </c>
@@ -7422,7 +7460,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>350</v>
       </c>
@@ -7433,7 +7471,7 @@
         <v>146800</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>351</v>
       </c>
@@ -7444,7 +7482,7 @@
         <v>141898</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>352</v>
       </c>
@@ -7455,7 +7493,7 @@
         <v>147780</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>353</v>
       </c>
@@ -7466,7 +7504,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>354</v>
       </c>
@@ -7477,7 +7515,7 @@
         <v>145375</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>355</v>
       </c>
@@ -7488,7 +7526,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -7499,7 +7537,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>357</v>
       </c>
@@ -7510,7 +7548,7 @@
         <v>149391</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>358</v>
       </c>
@@ -7521,7 +7559,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>359</v>
       </c>
@@ -7532,7 +7570,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>334</v>
       </c>
@@ -7543,7 +7581,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>335</v>
       </c>
@@ -7554,7 +7592,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>360</v>
       </c>
@@ -7565,7 +7603,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>361</v>
       </c>
@@ -7576,7 +7614,7 @@
         <v>149285</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>362</v>
       </c>
@@ -7587,7 +7625,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>363</v>
       </c>
@@ -7598,7 +7636,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>346</v>
       </c>
@@ -7609,7 +7647,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -7620,7 +7658,7 @@
         <v>145180</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>365</v>
       </c>
@@ -7631,7 +7669,7 @@
         <v>153814</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>366</v>
       </c>
@@ -7642,7 +7680,7 @@
         <v>148613</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>367</v>
       </c>
@@ -7653,7 +7691,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>368</v>
       </c>
@@ -7664,7 +7702,7 @@
         <v>134900</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>369</v>
       </c>
@@ -7675,7 +7713,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>370</v>
       </c>
@@ -7686,7 +7724,7 @@
         <v>151674</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>371</v>
       </c>
@@ -7697,7 +7735,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>372</v>
       </c>
@@ -7708,7 +7746,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>373</v>
       </c>
@@ -7719,7 +7757,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>374</v>
       </c>
@@ -7730,7 +7768,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>346</v>
       </c>
@@ -7741,7 +7779,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -7752,7 +7790,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -7763,7 +7801,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -7774,7 +7812,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>377</v>
       </c>
@@ -7785,7 +7823,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -7796,7 +7834,7 @@
         <v>166322</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>379</v>
       </c>
@@ -7807,7 +7845,7 @@
         <v>132993</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>380</v>
       </c>
@@ -7818,7 +7856,7 @@
         <v>150929</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>381</v>
       </c>
@@ -7829,7 +7867,7 @@
         <v>143860</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>358</v>
       </c>
@@ -7840,7 +7878,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>382</v>
       </c>
@@ -7851,7 +7889,7 @@
         <v>150699</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>383</v>
       </c>
@@ -7862,7 +7900,7 @@
         <v>136908</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>367</v>
       </c>
@@ -7873,7 +7911,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>384</v>
       </c>
@@ -7884,7 +7922,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>385</v>
       </c>
@@ -7895,7 +7933,7 @@
         <v>147311</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>386</v>
       </c>
@@ -7906,7 +7944,7 @@
         <v>151500</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>387</v>
       </c>
@@ -7917,7 +7955,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>388</v>
       </c>
@@ -7928,7 +7966,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>358</v>
       </c>
@@ -7939,7 +7977,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>389</v>
       </c>
@@ -7950,7 +7988,7 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>390</v>
       </c>
@@ -7961,7 +7999,7 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>391</v>
       </c>
@@ -7972,7 +8010,7 @@
         <v>137900</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>392</v>
       </c>
@@ -7983,7 +8021,7 @@
         <v>150750</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>393</v>
       </c>
@@ -7994,7 +8032,7 @@
         <v>150750</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>394</v>
       </c>
@@ -8005,7 +8043,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>395</v>
       </c>
@@ -8016,7 +8054,7 @@
         <v>143529</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>353</v>
       </c>
@@ -8027,7 +8065,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>356</v>
       </c>
@@ -8038,7 +8076,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>396</v>
       </c>
@@ -8049,7 +8087,7 @@
         <v>145200</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>397</v>
       </c>
@@ -8060,7 +8098,7 @@
         <v>150699</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>360</v>
       </c>
@@ -8071,7 +8109,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>398</v>
       </c>
@@ -8082,7 +8120,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>399</v>
       </c>
@@ -8093,7 +8131,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>356</v>
       </c>
@@ -8104,7 +8142,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>400</v>
       </c>
@@ -8115,7 +8153,7 @@
         <v>148900</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>334</v>
       </c>
@@ -8126,7 +8164,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>335</v>
       </c>
@@ -8137,7 +8175,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>401</v>
       </c>
@@ -8148,7 +8186,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>402</v>
       </c>
@@ -8159,7 +8197,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>346</v>
       </c>
@@ -8170,7 +8208,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>403</v>
       </c>
@@ -8181,7 +8219,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>404</v>
       </c>
@@ -8192,7 +8230,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>405</v>
       </c>
@@ -8203,7 +8241,7 @@
         <v>138407</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>406</v>
       </c>
@@ -8214,7 +8252,7 @@
         <v>135090</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>407</v>
       </c>
@@ -8225,7 +8263,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>408</v>
       </c>
@@ -8236,7 +8274,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>409</v>
       </c>
@@ -8247,7 +8285,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>410</v>
       </c>
@@ -8258,7 +8296,7 @@
         <v>150475</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>411</v>
       </c>
@@ -8269,7 +8307,7 @@
         <v>136581</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>358</v>
       </c>
@@ -8280,7 +8318,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>353</v>
       </c>
@@ -8291,7 +8329,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>360</v>
       </c>
@@ -8302,7 +8340,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>412</v>
       </c>
@@ -8313,7 +8351,7 @@
         <v>134500</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -8324,7 +8362,7 @@
         <v>156236</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>414</v>
       </c>
@@ -8335,7 +8373,7 @@
         <v>151299</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>415</v>
       </c>
@@ -8346,7 +8384,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>416</v>
       </c>
@@ -8357,7 +8395,7 @@
         <v>143100</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -8368,7 +8406,7 @@
         <v>142880</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>367</v>
       </c>
@@ -8379,7 +8417,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>356</v>
       </c>
@@ -8390,7 +8428,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>356</v>
       </c>
@@ -8401,7 +8439,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>334</v>
       </c>
@@ -8412,7 +8450,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>367</v>
       </c>
@@ -8423,7 +8461,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>418</v>
       </c>
@@ -8434,7 +8472,7 @@
         <v>141690</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>415</v>
       </c>
@@ -8445,7 +8483,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>360</v>
       </c>
@@ -8456,7 +8494,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>419</v>
       </c>
@@ -8467,7 +8505,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>420</v>
       </c>
@@ -8478,7 +8516,7 @@
         <v>144800</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>421</v>
       </c>
@@ -8489,7 +8527,7 @@
         <v>136196</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>422</v>
       </c>
@@ -8500,7 +8538,7 @@
         <v>144850</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>423</v>
       </c>
@@ -8511,7 +8549,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>424</v>
       </c>
@@ -8522,7 +8560,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>425</v>
       </c>
@@ -8533,7 +8571,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>426</v>
       </c>
@@ -8544,7 +8582,7 @@
         <v>135136</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>427</v>
       </c>
@@ -8555,7 +8593,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>358</v>
       </c>
@@ -8566,7 +8604,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>358</v>
       </c>
@@ -8577,7 +8615,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>428</v>
       </c>
@@ -8588,7 +8626,7 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>429</v>
       </c>
@@ -8599,7 +8637,7 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>430</v>
       </c>
@@ -8610,7 +8648,7 @@
         <v>141034</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>431</v>
       </c>
@@ -8621,7 +8659,7 @@
         <v>145900</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>432</v>
       </c>
@@ -8632,7 +8670,7 @@
         <v>148191</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>360</v>
       </c>
@@ -8643,7 +8681,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>433</v>
       </c>
@@ -8654,7 +8692,7 @@
         <v>150499</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>334</v>
       </c>
@@ -8665,7 +8703,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>367</v>
       </c>
@@ -8676,7 +8714,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>434</v>
       </c>
@@ -8687,7 +8725,7 @@
         <v>152753</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -8698,7 +8736,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -8709,7 +8747,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>435</v>
       </c>
@@ -8720,7 +8758,7 @@
         <v>142880</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>436</v>
       </c>
@@ -8731,7 +8769,7 @@
         <v>142977</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>437</v>
       </c>
@@ -8742,7 +8780,7 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>438</v>
       </c>
@@ -8753,7 +8791,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>439</v>
       </c>
@@ -8764,7 +8802,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>440</v>
       </c>
@@ -8775,7 +8813,7 @@
         <v>166322</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>441</v>
       </c>
@@ -8786,7 +8824,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>442</v>
       </c>
@@ -8797,7 +8835,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>443</v>
       </c>
@@ -8808,7 +8846,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>444</v>
       </c>
@@ -8819,7 +8857,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>445</v>
       </c>
@@ -8830,7 +8868,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>446</v>
       </c>
@@ -8841,7 +8879,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>447</v>
       </c>
@@ -8852,7 +8890,7 @@
         <v>146500</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>448</v>
       </c>
@@ -8863,7 +8901,7 @@
         <v>140990</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>353</v>
       </c>
@@ -8874,7 +8912,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>449</v>
       </c>
@@ -8885,7 +8923,7 @@
         <v>146850</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>450</v>
       </c>
@@ -8896,7 +8934,7 @@
         <v>142667</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>451</v>
       </c>
@@ -8907,7 +8945,7 @@
         <v>146655</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>452</v>
       </c>
@@ -8918,7 +8956,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>453</v>
       </c>
@@ -8929,7 +8967,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>454</v>
       </c>
@@ -8940,7 +8978,7 @@
         <v>146972</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>455</v>
       </c>
@@ -8951,7 +8989,7 @@
         <v>142888</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>456</v>
       </c>
@@ -8962,7 +9000,7 @@
         <v>154160</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>457</v>
       </c>
@@ -8973,7 +9011,7 @@
         <v>148945</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>458</v>
       </c>
@@ -8984,7 +9022,7 @@
         <v>149262</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>353</v>
       </c>
@@ -8995,7 +9033,7 @@
         <v>129900</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>346</v>
       </c>
@@ -9006,7 +9044,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>459</v>
       </c>
@@ -9017,7 +9055,7 @@
         <v>148658</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>460</v>
       </c>
@@ -9028,7 +9066,7 @@
         <v>139900</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>461</v>
       </c>
@@ -9039,7 +9077,7 @@
         <v>142977</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>462</v>
       </c>
@@ -9050,7 +9088,7 @@
         <v>145375</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>367</v>
       </c>
@@ -9061,7 +9099,7 @@
         <v>131900</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>463</v>
       </c>
@@ -9072,7 +9110,7 @@
         <v>143415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>464</v>
       </c>
@@ -9083,7 +9121,7 @@
         <v>143625</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>465</v>
       </c>
@@ -9094,7 +9132,7 @@
         <v>150475</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>360</v>
       </c>
@@ -9105,7 +9143,7 @@
         <v>136900</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>466</v>
       </c>
@@ -9116,7 +9154,7 @@
         <v>144910</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>467</v>
       </c>
@@ -9127,7 +9165,7 @@
         <v>153260</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>468</v>
       </c>
@@ -9144,25 +9182,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>473</v>
       </c>
@@ -9173,7 +9211,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>476</v>
       </c>
@@ -9184,7 +9222,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>478</v>
       </c>
@@ -9195,7 +9233,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>480</v>
       </c>
@@ -9206,7 +9244,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -9217,7 +9255,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>484</v>
       </c>
@@ -9228,7 +9266,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>486</v>
       </c>
@@ -9239,7 +9277,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>488</v>
       </c>
@@ -9250,7 +9288,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>490</v>
       </c>
@@ -9261,7 +9299,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>492</v>
       </c>
@@ -9272,7 +9310,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>494</v>
       </c>
@@ -9289,21 +9327,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.73046875" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>474</v>
       </c>
@@ -9320,7 +9358,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>630</v>
       </c>
@@ -9338,7 +9376,7 @@
         <v>3651.6341062625525</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>633</v>
       </c>
@@ -9356,7 +9394,7 @@
         <v>3651.6341062625525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>635</v>
       </c>
@@ -9374,7 +9412,7 @@
         <v>3834.2158115756797</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>637</v>
       </c>
@@ -9392,7 +9430,7 @@
         <v>3925.5066642322436</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>638</v>
       </c>
@@ -9410,7 +9448,7 @@
         <v>4564.5426328281901</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>640</v>
       </c>
@@ -9428,7 +9466,7 @@
         <v>2373.5621690706589</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>641</v>
       </c>
@@ -9446,7 +9484,7 @@
         <v>2008.3987584444039</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>643</v>
       </c>
@@ -9464,7 +9502,7 @@
         <v>3195.1798429797332</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>643</v>
       </c>
@@ -9482,7 +9520,7 @@
         <v>3195.1798429797332</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>645</v>
       </c>
@@ -9500,7 +9538,7 @@
         <v>3286.470695636297</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>646</v>
       </c>
@@ -9518,7 +9556,7 @@
         <v>2775.2419207595399</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>647</v>
       </c>
@@ -9536,7 +9574,7 @@
         <v>2044.9150995070295</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>648</v>
       </c>
@@ -9547,20 +9585,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>469</v>
       </c>
@@ -9568,7 +9606,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>613</v>
       </c>
@@ -9577,7 +9615,7 @@
         <v>8309.8800311829455</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>471</v>
       </c>
@@ -9586,7 +9624,7 @@
         <v>13630.200652086061</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>496</v>
       </c>
@@ -9595,7 +9633,7 @@
         <v>4633.1654645849012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>649</v>
       </c>
@@ -9611,21 +9649,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="15.73046875" customWidth="1"/>
-    <col min="4" max="11" width="14.265625" customWidth="1"/>
-    <col min="12" max="13" width="18.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>622</v>
       </c>
@@ -9666,7 +9704,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -9707,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9748,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -9789,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -9830,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -9871,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>619</v>
       </c>
@@ -9912,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>620</v>
       </c>
@@ -9960,26 +9998,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="3" width="24.265625" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="8" width="24.265625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>621</v>
       </c>
@@ -10005,7 +10043,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -10038,7 +10076,7 @@
         <v>19285.213920368249</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -10071,7 +10109,7 @@
         <v>114375.50191218297</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -10100,7 +10138,7 @@
         <v>15428147.692604657</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -10129,37 +10167,40 @@
         <v>594915.72079452395</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J2/'Data from BNVP'!$E$5)</f>
-        <v>4504.2898508564313</v>
+        <f>B2</f>
+        <v>13658.022529814965</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <f t="shared" ref="C6:H6" si="0">C2</f>
+        <v>10302.330516464528</v>
       </c>
       <c r="D6" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J4/'Data from BNVP'!$E$5)</f>
-        <v>3076.1462883723043</v>
+        <f t="shared" si="0"/>
+        <v>8309.8800311829455</v>
       </c>
       <c r="E6" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J5/'Data from BNVP'!$E$5)</f>
-        <v>3076.1462883723043</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8807.824444583006</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>10230.832818563998</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>10618.899938992296</v>
       </c>
       <c r="H6" s="3">
-        <f>'SDoVPbT-frgt'!$E$3*('Data from BNVP'!J8/'Data from BNVP'!$E$5)</f>
-        <v>7138.988649534288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>19285.213920368249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
